--- a/writeup/data.xlsx
+++ b/writeup/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9518c4b56cc0b26/Documents/GitHub/21f-pa02-jp-and-garretts-cool-kids-team-reloaded/writeup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5188290A-F80C-45FF-A7C2-0D2F5FB5F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{5188290A-F80C-45FF-A7C2-0D2F5FB5F9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEB21712-6212-4851-B679-C72BBFCEB6C6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9757,8 +9757,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
@@ -10162,7 +10162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -11535,10 +11535,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
